--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - red text small.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - red text small.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2E2F5A-3A9E-459A-97B6-F21CF7944069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -74,12 +75,15 @@
   <si>
     <t>Green</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPr id="1032" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -339,7 +363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPr id="1036" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -379,7 +409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPr id="1038" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -408,9 +444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +484,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -482,6 +518,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -516,9 +553,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,19 +729,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BU43" sqref="BF43:BU49"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BY2" sqref="BY2:CB13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="98" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -855,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:88">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1036,14 +1074,14 @@
       <c r="BQ2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="CH2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="BY2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:88">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1224,14 +1262,14 @@
       <c r="BQ3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="CH3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="s">
+      <c r="BY3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:88">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1412,14 +1450,14 @@
       <c r="BQ4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="CH4" s="6" t="s">
+      <c r="BY4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CA4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:88">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1600,14 +1638,14 @@
       <c r="BQ5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="CH5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ5" t="s">
+      <c r="BY5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:88">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1788,1123 +1826,1123 @@
       <c r="BQ6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="CH6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="CJ6" t="s">
+      <c r="BY6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:88">
-      <c r="CH7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ7" t="s">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BY7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:88">
-      <c r="CH8" s="8" t="s">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BY8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BY9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BY10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="BY11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="CJ8" t="s">
-        <v>13</v>
+      <c r="CA11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:88">
-      <c r="CH9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>15</v>
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:88">
-      <c r="CH10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>17</v>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:88">
-      <c r="CH11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>18</v>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL16">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:88">
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>3</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>3</v>
-      </c>
-      <c r="T14" s="1">
-        <v>4</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>3</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>4</v>
-      </c>
-      <c r="BM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP14" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ14" s="1">
-        <v>4</v>
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE17">
+        <v>2</v>
+      </c>
+      <c r="BF17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL17">
+        <v>2</v>
+      </c>
+      <c r="BM17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ17" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:88">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ15" s="4" t="s">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>3</v>
+      </c>
+      <c r="BF18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL18">
+        <v>3</v>
+      </c>
+      <c r="BM18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:88">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE16">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL16">
-        <v>1</v>
-      </c>
-      <c r="BM16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ16" s="4" t="s">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19">
+        <v>4</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>4</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <v>4</v>
+      </c>
+      <c r="BF19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL19">
+        <v>4</v>
+      </c>
+      <c r="BM19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:90">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ17">
-        <v>2</v>
-      </c>
-      <c r="AK17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>2</v>
-      </c>
-      <c r="AR17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="AY17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE17">
-        <v>2</v>
-      </c>
-      <c r="BF17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL17">
-        <v>2</v>
-      </c>
-      <c r="BM17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ17" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:90">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC18">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ18">
-        <v>3</v>
-      </c>
-      <c r="AK18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ18">
-        <v>3</v>
-      </c>
-      <c r="AR18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX18">
-        <v>3</v>
-      </c>
-      <c r="AY18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE18">
-        <v>3</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL18">
-        <v>3</v>
-      </c>
-      <c r="BM18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ18" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:90">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>4</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ19">
-        <v>4</v>
-      </c>
-      <c r="AK19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ19">
-        <v>4</v>
-      </c>
-      <c r="AR19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX19">
-        <v>4</v>
-      </c>
-      <c r="AY19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE19">
-        <v>4</v>
-      </c>
-      <c r="BF19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL19">
-        <v>4</v>
-      </c>
-      <c r="BM19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="CH20" s="1"/>
       <c r="CI20" s="1"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -3056,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3238,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3420,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3602,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:90">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3784,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3966,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>0</v>
       </c>
@@ -4088,7 +4126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4237,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -4386,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -4535,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4684,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -4841,24 +4879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
